--- a/contact number.xlsx
+++ b/contact number.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t xml:space="preserve"> विजय माने (कंदर) 9158175778</t>
   </si>
@@ -96,6 +95,9 @@
   </si>
   <si>
     <t>positv</t>
+  </si>
+  <si>
+    <t>Tkaram Kambale Washimbe 9370006904</t>
   </si>
 </sst>
 </file>
@@ -143,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -155,6 +157,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,17 +459,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:H26"/>
+  <dimension ref="E9:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="53.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="5:8" ht="20.25" x14ac:dyDescent="0.25">
@@ -674,6 +677,17 @@
       </c>
       <c r="H26" s="2">
         <v>45645</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>
